--- a/static/설정.xlsx
+++ b/static/설정.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="3096" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="모듈" sheetId="1" r:id="rId1"/>
     <sheet name="화면" sheetId="2" r:id="rId2"/>
     <sheet name="메인화면 마크업" sheetId="3" r:id="rId3"/>
+    <sheet name="api" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>메인레이아웃</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>작성필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>본문바로가기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -229,13 +226,96 @@
   <si>
     <t>카드타일</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment-li.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://team6-dev.ap-northeast-2.elasticbeanstalk.com/</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/signup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F,M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +345,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,21 +371,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,7 +670,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -652,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -760,115 +852,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -876,4 +968,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3">
+        <v>33522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>